--- a/optimization model/data/input-time-series_20%.xlsx
+++ b/optimization model/data/input-time-series_20%.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:U1755"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
